--- a/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_5.xlsx
+++ b/Juan/Reviciones/Plantilla_Lista_de_Tareas_de_la_revisión_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juuan\Desktop\6to semstre\Des. Software\Proyecto\EmpenioFacil\Juan\Reviciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCB7F4D-D755-4437-9130-067BF63CBAF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EB698A-E5E8-4C20-8313-289CDD9BC879}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="56">
   <si>
     <t>Columna</t>
   </si>
@@ -201,13 +201,16 @@
   </si>
   <si>
     <t>Buscar contrato</t>
+  </si>
+  <si>
+    <t>Hecho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +236,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -348,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -391,6 +402,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,6 +423,1185 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Métricas de tiempo - Revisión</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> 5 - Juan Carlos D</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Minutos estimados</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Capturar datos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validar datos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guardar contrato</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Guardar pagos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Buscar contrato</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$G$6:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F3E-444A-8A67-39D250FD5D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Minutos invertidos</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Casos de Uso'!$D$6:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Capturar datos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Validar datos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Guardar contrato</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Guardar pagos</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Buscar contrato</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pruebas unitarias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Casos de Uso'!$AZ$6:$AZ$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9F3E-444A-8A67-39D250FD5D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="129144200"/>
+        <c:axId val="129140920"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="129144200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Casos de uso</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129140920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129140920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Minutos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="129144200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186787</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>375061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>108855</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75458</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B6B1D6-F6B2-4EEF-947D-923728B69A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,11 +1893,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="AZ6" activeCellId="1" sqref="G6:G13 AZ6:AZ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +2201,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G6" s="5">
         <v>60</v>
@@ -1022,90 +2218,94 @@
         <v>60</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="8"/>
+      <c r="N6" s="8">
+        <v>20</v>
+      </c>
       <c r="O6" s="8">
         <f t="shared" ref="O6:O14" si="1">L6-N6</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="P6" s="10"/>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="8">
+        <v>30</v>
+      </c>
       <c r="R6" s="8">
         <f t="shared" ref="R6:R14" si="2">O6-Q6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="S6" s="10"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8">
         <f t="shared" ref="U6:U14" si="3">R6-T6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="8"/>
       <c r="X6" s="8">
         <f t="shared" ref="X6:X14" si="4">U6-W6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Y6" s="10"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8">
         <f t="shared" ref="AA6:AA14" si="5">X6-Z6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8">
         <f t="shared" ref="AD6:AD14" si="6">AA6-AC6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="8"/>
       <c r="AG6" s="8">
         <f t="shared" ref="AG6:AG14" si="7">AD6-AF6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AH6" s="10"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ14" si="8">AG6-AI6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AK6" s="10"/>
       <c r="AL6" s="8"/>
       <c r="AM6" s="8">
         <f t="shared" ref="AM6:AM14" si="9">AJ6-AL6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AN6" s="10"/>
       <c r="AO6" s="8"/>
       <c r="AP6" s="8">
         <f t="shared" ref="AP6:AP14" si="10">AM6-AO6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AQ6" s="10"/>
       <c r="AR6" s="8"/>
       <c r="AS6" s="8">
         <f t="shared" ref="AS6:AS14" si="11">AP6-AR6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AT6" s="10"/>
       <c r="AU6" s="8"/>
       <c r="AV6" s="8">
         <f t="shared" ref="AV6:AV14" si="12">AS6-AU6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AW6" s="10"/>
       <c r="AX6" s="8"/>
       <c r="AY6" s="8">
         <f t="shared" ref="AY6:AY14" si="13">AV6-AX6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AZ6" s="11">
         <f t="shared" ref="AZ6:AZ13" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BA6" s="11">
         <f t="shared" ref="BA6:BA14" si="15">G6-AZ6</f>
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1118,7 +2318,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G7" s="5">
         <v>60</v>
@@ -1141,84 +2341,86 @@
         <v>60</v>
       </c>
       <c r="P7" s="10"/>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="8">
+        <v>10</v>
+      </c>
       <c r="R7" s="8">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S7" s="10"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="V7" s="10"/>
       <c r="W7" s="8"/>
       <c r="X7" s="8">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Y7" s="10"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="8"/>
       <c r="AD7" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="8"/>
       <c r="AG7" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AH7" s="10"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AK7" s="10"/>
       <c r="AL7" s="8"/>
       <c r="AM7" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN7" s="10"/>
       <c r="AO7" s="8"/>
       <c r="AP7" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AQ7" s="10"/>
       <c r="AR7" s="8"/>
       <c r="AS7" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AT7" s="10"/>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AW7" s="10"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ7" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA7" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1231,7 +2433,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G8" s="5">
         <v>80</v>
@@ -1254,84 +2456,86 @@
         <v>80</v>
       </c>
       <c r="P8" s="10"/>
-      <c r="Q8" s="8"/>
+      <c r="Q8" s="8">
+        <v>20</v>
+      </c>
       <c r="R8" s="8">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="V8" s="10"/>
       <c r="W8" s="8"/>
       <c r="X8" s="8">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Y8" s="10"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="8"/>
       <c r="AD8" s="8">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="8"/>
       <c r="AG8" s="8">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AH8" s="10"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8">
         <f t="shared" si="8"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AK8" s="10"/>
       <c r="AL8" s="8"/>
       <c r="AM8" s="8">
         <f t="shared" si="9"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN8" s="10"/>
       <c r="AO8" s="8"/>
       <c r="AP8" s="8">
         <f t="shared" si="10"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AQ8" s="10"/>
       <c r="AR8" s="8"/>
       <c r="AS8" s="8">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AT8" s="10"/>
       <c r="AU8" s="8"/>
       <c r="AV8" s="8">
         <f t="shared" si="12"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AW8" s="10"/>
       <c r="AX8" s="8"/>
       <c r="AY8" s="8">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AZ8" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA8" s="11">
         <f t="shared" si="15"/>
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1344,7 +2548,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5">
         <v>60</v>
@@ -1367,84 +2571,86 @@
         <v>60</v>
       </c>
       <c r="P9" s="10"/>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="8">
+        <v>15</v>
+      </c>
       <c r="R9" s="8">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="V9" s="10"/>
       <c r="W9" s="8"/>
       <c r="X9" s="8">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="8"/>
       <c r="AD9" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="8"/>
       <c r="AG9" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AH9" s="10"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK9" s="10"/>
       <c r="AL9" s="8"/>
       <c r="AM9" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AN9" s="10"/>
       <c r="AO9" s="8"/>
       <c r="AP9" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AT9" s="10"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AW9" s="10"/>
       <c r="AX9" s="8"/>
       <c r="AY9" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AZ9" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA9" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1480,84 +2686,86 @@
         <v>100</v>
       </c>
       <c r="P10" s="10"/>
-      <c r="Q10" s="8"/>
+      <c r="Q10" s="8">
+        <v>20</v>
+      </c>
       <c r="R10" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="V10" s="10"/>
       <c r="W10" s="8"/>
       <c r="X10" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y10" s="10"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="8">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="8"/>
       <c r="AG10" s="8">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AH10" s="10"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK10" s="10"/>
       <c r="AL10" s="8"/>
       <c r="AM10" s="8">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN10" s="10"/>
       <c r="AO10" s="8"/>
       <c r="AP10" s="8">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="8"/>
       <c r="AS10" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AT10" s="10"/>
       <c r="AU10" s="8"/>
       <c r="AV10" s="8">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW10" s="10"/>
       <c r="AX10" s="8"/>
       <c r="AY10" s="8">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AZ10" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA10" s="11">
         <f t="shared" si="15"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1597,84 +2805,86 @@
         <v>100</v>
       </c>
       <c r="P11" s="10"/>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="8">
+        <v>20</v>
+      </c>
       <c r="R11" s="8">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="V11" s="10"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Y11" s="10"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="8">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AE11" s="10"/>
       <c r="AF11" s="8"/>
       <c r="AG11" s="8">
         <f t="shared" si="7"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AH11" s="10"/>
       <c r="AI11" s="8"/>
       <c r="AJ11" s="8">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK11" s="10"/>
       <c r="AL11" s="8"/>
       <c r="AM11" s="8">
         <f t="shared" si="9"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="8"/>
       <c r="AP11" s="8">
         <f t="shared" si="10"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AQ11" s="10"/>
       <c r="AR11" s="8"/>
       <c r="AS11" s="8">
         <f t="shared" si="11"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AT11" s="10"/>
       <c r="AU11" s="8"/>
       <c r="AV11" s="8">
         <f t="shared" si="12"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AW11" s="10"/>
       <c r="AX11" s="8"/>
       <c r="AY11" s="8">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AZ11" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA11" s="11">
         <f t="shared" si="15"/>
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1690,8 +2900,8 @@
       <c r="E12" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>46</v>
+      <c r="F12" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="G12" s="5">
         <v>60</v>
@@ -1714,84 +2924,86 @@
         <v>60</v>
       </c>
       <c r="P12" s="10"/>
-      <c r="Q12" s="8"/>
+      <c r="Q12" s="8">
+        <v>20</v>
+      </c>
       <c r="R12" s="8">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="V12" s="10"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AE12" s="10"/>
       <c r="AF12" s="8"/>
       <c r="AG12" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH12" s="10"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK12" s="10"/>
       <c r="AL12" s="8"/>
       <c r="AM12" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN12" s="10"/>
       <c r="AO12" s="8"/>
       <c r="AP12" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AQ12" s="10"/>
       <c r="AR12" s="8"/>
       <c r="AS12" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AT12" s="10"/>
       <c r="AU12" s="8"/>
       <c r="AV12" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AW12" s="10"/>
       <c r="AX12" s="8"/>
       <c r="AY12" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AZ12" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA12" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:53" ht="45" x14ac:dyDescent="0.25">
@@ -1827,84 +3039,86 @@
         <v>60</v>
       </c>
       <c r="P13" s="10"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8">
+      <c r="Q13" s="8">
+        <v>20</v>
+      </c>
+      <c r="R13" s="19">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="8"/>
       <c r="AD13" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="8"/>
       <c r="AG13" s="8">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH13" s="10"/>
       <c r="AI13" s="8"/>
       <c r="AJ13" s="8">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK13" s="10"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="8">
         <f t="shared" si="9"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AN13" s="10"/>
       <c r="AO13" s="8"/>
       <c r="AP13" s="8">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AQ13" s="10"/>
       <c r="AR13" s="8"/>
       <c r="AS13" s="8">
         <f t="shared" si="11"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AT13" s="10"/>
       <c r="AU13" s="8"/>
       <c r="AV13" s="8">
         <f t="shared" si="12"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AW13" s="10"/>
       <c r="AX13" s="8"/>
       <c r="AY13" s="8">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AZ13" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BA13" s="11">
         <f t="shared" si="15"/>
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:53" ht="30" x14ac:dyDescent="0.25">
@@ -2040,6 +3254,7 @@
     <brk id="36" max="18" man="1"/>
     <brk id="53" max="18" man="1"/>
   </colBreaks>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
